--- a/test.xlsx
+++ b/test.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Ответы на форму (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Отметка времени</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>8-(917)-111-22-33</t>
+  </si>
+  <si>
+    <t>900-699-99-77</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -459,8 +465,8 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>89999999999</v>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -479,8 +485,8 @@
       <c r="E3" s="2">
         <v>987456163</v>
       </c>
-      <c r="F3">
-        <v>1234567890</v>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -46,10 +46,10 @@
     <t>900-699-99-77</t>
   </si>
   <si>
-    <t>ййй@mail.ru</t>
-  </si>
-  <si>
-    <t>aaaaa@mail.ru</t>
+    <t>aaa@eee.etr</t>
+  </si>
+  <si>
+    <t>gg@dd.rc</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -70,24 +70,78 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,14 +155,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -415,12 +475,12 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="21.5546875" customWidth="1"/>
+    <col min="1" max="5" customWidth="true" width="21.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -447,13 +507,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -464,13 +524,13 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
         <v>987456163</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
